--- a/biology/Botanique/Echinocactus_grusonii/Echinocactus_grusonii.xlsx
+++ b/biology/Botanique/Echinocactus_grusonii/Echinocactus_grusonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinocactus grusonii est une espèce de plantes à fleurs de la famille des Cactaceae et du genre Echinocactus. C'est une des espèces les plus connues de cactus.
 Elle est dédiée à Hermann Gruson, cactophile allemand.
@@ -516,7 +528,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De forme quasi sphérique, elle atteint 60 cm de diamètre, voire un mètre après de nombreuses années.
 Les sujets peuvent présenter jusqu'à 35 côtes sur les sujets adultes.
@@ -552,7 +566,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante de culture facile et à croissance relativement rapide. Pour ces raisons, elle est commercialisée à plusieurs milliers d'exemplaires chaque année par les jardineries.
 Elle demande une température hivernale minimum de 12 °C, bien drainée avec moins d'arrosage en hiver.
